--- a/data/dados_biost_exp.xlsx
+++ b/data/dados_biost_exp.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7B5052-1934-43F1-9E6B-56BA921E748B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9BB25C-468B-4935-8A06-83A0AD1D3C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="934" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="934" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REG_DATA" sheetId="32" r:id="rId1"/>
@@ -2772,7 +2772,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2795,7 +2795,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="102">
-        <v>7.0880000000000001</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -2803,7 +2803,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="104">
-        <v>7.3719999999999999</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -2811,7 +2811,7 @@
         <v>40</v>
       </c>
       <c r="B4" s="104">
-        <v>8.2840000000000007</v>
+        <v>8.2799999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -2819,7 +2819,7 @@
         <v>50</v>
       </c>
       <c r="B5" s="104">
-        <v>8.3239999999999998</v>
+        <v>8.32</v>
       </c>
     </row>
   </sheetData>
